--- a/biology/Zoologie/Gonyosoma_frenatum/Gonyosoma_frenatum.xlsx
+++ b/biology/Zoologie/Gonyosoma_frenatum/Gonyosoma_frenatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonyosoma frenatum  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonyosoma frenatum  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Inde dans les États d'Assam et d'Arunachal Pradesh ;
 dans le nord du Viêt Nam ;
 en République populaire de Chine au Sichuan, au Fujian, au Guangdong, dans l'Anhui, au Guangxi, au Guizhou et au Zhejiang ;
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonyosoma frenatum est à l'âge adulte de couleur plus terne grisâtre-verdâtre/bleuâtre légèrement tacheté de noir mal définie que Gonyosoma boulengeri (vert bleuté) et Gonyosoma prasinum (vert). Le dessous du corps est blanchâtre à jaunâtre, une barre noir bien marqué file du nez jusqu'à l'arrière de la tête.
 </t>
@@ -576,7 +592,9 @@
           <t>Dimorphisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme chez toutes les autres espèces de serpent, Gonyosoma frenatum femelle est plus grande que le mâle à l'âge adulte.
 </t>
@@ -607,7 +625,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de couleuvre est ovipare et pond un certain nombre d'œufs. À la naissance les juvéniles sont de couleurs bleu foncé tacheté de jaune et de noir. Le dessous de la tête est blanche avec une barre noire épaisse qui file du nez à l'arrière de la tête en passant par l'œil.
 </t>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1853 : Descriptions of some undescribed species of reptiles collected by Dr. Joseph Hooker in the Khassia Mountains, East Bengal, and Sikkim Himalaya. Annals and Magazine of Natural History, sér. 2, vol. 12, p. 386-392 (texte intégral)</t>
         </is>
